--- a/data/rrv_volatiles_pca_correlation_table_pca_dat_qsep.xlsx
+++ b/data/rrv_volatiles_pca_correlation_table_pca_dat_qsep.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,577 +382,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-Hexen-1-ol, acetate, (E)-</t>
+          <t>Pinene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B2">
-        <v>-0.06065410716696589</v>
+        <v>-0.3694054951003858</v>
       </c>
       <c r="C2">
-        <v>-0.03906354818306414</v>
+        <v>-0.0422244577319677</v>
       </c>
       <c r="D2">
-        <v>0.02758976468912388</v>
+        <v>0.1516163740163221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Hexenal</t>
+          <t>Pinene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B3">
-        <v>-0.05930265603948502</v>
+        <v>-0.4295224551359214</v>
       </c>
       <c r="C3">
-        <v>-0.02036923526697147</v>
+        <v>-0.03053974011132848</v>
       </c>
       <c r="D3">
-        <v>0.03669591131309888</v>
+        <v>0.142886637602976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Thujene</t>
+          <t>D-Limonene</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.006100180358836678</v>
+        <v>-0.2842094050456888</v>
       </c>
       <c r="C4">
-        <v>-0.01394951609777993</v>
+        <v>0.01738877019082392</v>
       </c>
       <c r="D4">
-        <v>-0.01122468744273721</v>
+        <v>0.2368040408346399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,4,6-Octatriene, 2,6-dimethyl-, (E,Z)-</t>
+          <t>Copaene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.231531896053363</v>
+        <v>-0.02968752926444476</v>
       </c>
       <c r="C5">
-        <v>-0.04946032123554519</v>
+        <v>0.01252515420705032</v>
       </c>
       <c r="D5">
-        <v>0.07657207369948409</v>
+        <v>-0.002056867655746422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol Acetate (Z)-</t>
+          <t>Copaene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B6">
-        <v>-0.366551321634666</v>
+        <v>-0.1535030678980222</v>
       </c>
       <c r="C6">
-        <v>-0.2556959046204148</v>
+        <v>0.01046723411064218</v>
       </c>
       <c r="D6">
-        <v>-0.1919838800414747</v>
+        <v>0.02154900765473602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol, (Z)-</t>
+          <t>Caryophyllene</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.1113306364070828</v>
+        <v>-1.039906090370387</v>
       </c>
       <c r="C7">
-        <v>-0.05188485055283219</v>
+        <v>-0.07244827850110809</v>
       </c>
       <c r="D7">
-        <v>0.06803464236102669</v>
+        <v>0.2305913879713467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5-Hepten-2-one, &lt;6-methyl-&gt;</t>
+          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.0006513911085085535</v>
+        <v>-0.1851265331204925</v>
       </c>
       <c r="C8">
-        <v>0.0003830727591181431</v>
+        <v>0.01286439395572121</v>
       </c>
       <c r="D8">
-        <v>0.007688047001600952</v>
+        <v>0.02304459430566035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acetic acid, hexyl ester</t>
+          <t>Muurrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B9">
-        <v>-0.009027759089907609</v>
+        <v>-3.15370720588049</v>
       </c>
       <c r="C9">
-        <v>-0.006028091261292278</v>
+        <v>-0.2115974945343553</v>
       </c>
       <c r="D9">
-        <v>0.004701077346627719</v>
+        <v>-0.1308485031800514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aromadendrene</t>
+          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.005816821824066545</v>
+        <v>-1.054228840920848</v>
       </c>
       <c r="C10">
-        <v>0.005100924218784117</v>
+        <v>0.7222694225055262</v>
       </c>
       <c r="D10">
-        <v>-0.0001753666019745176</v>
+        <v>-0.002285089263364072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzaldehyde &lt;para-ethyl-&gt;</t>
+          <t>Farnesene &lt;(E)-, beta-&gt;</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.03410687398532128</v>
+        <v>-0.05799868430074383</v>
       </c>
       <c r="C11">
-        <v>-0.04828052109502039</v>
+        <v>0.01089607372174961</v>
       </c>
       <c r="D11">
-        <v>-0.03318758440909437</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cadina-1,4-diene &lt;trans-&gt;</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>-0.00940517010188059</v>
-      </c>
-      <c r="C12">
-        <v>-0.0006818351501117149</v>
-      </c>
-      <c r="D12">
-        <v>0.00553425362997127</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cadinene &lt;delta-&gt;</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>-0.08361944611914217</v>
-      </c>
-      <c r="C13">
-        <v>-0.02301759285624297</v>
-      </c>
-      <c r="D13">
-        <v>0.05384118234045542</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Calamenene</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>-0.008732991010966411</v>
-      </c>
-      <c r="C14">
-        <v>0.02133880198108107</v>
-      </c>
-      <c r="D14">
-        <v>-0.01723584830018375</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Camphor</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.06189861128041412</v>
-      </c>
-      <c r="C15">
-        <v>-0.07745043835295633</v>
-      </c>
-      <c r="D15">
-        <v>-0.042428387712958</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Caryophyllene</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>-1.01851679276421</v>
-      </c>
-      <c r="C16">
-        <v>0.1675024968011303</v>
-      </c>
-      <c r="D16">
-        <v>-0.1830219904827094</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>-0.1845819218572266</v>
-      </c>
-      <c r="C17">
-        <v>0.008136557755152958</v>
-      </c>
-      <c r="D17">
-        <v>-0.01185486904545238</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>-0.03125837629449838</v>
-      </c>
-      <c r="C18">
-        <v>-0.01697581820056686</v>
-      </c>
-      <c r="D18">
-        <v>-0.004560759130131882</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>-0.1540331757275051</v>
-      </c>
-      <c r="C19">
-        <v>0.005782135552317004</v>
-      </c>
-      <c r="D19">
-        <v>0.003107612590908361</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>-0.2921798570512374</v>
-      </c>
-      <c r="C20">
-        <v>-0.00552637852658186</v>
-      </c>
-      <c r="D20">
-        <v>0.08488296779245376</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Elemene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>-0.03028809734281605</v>
-      </c>
-      <c r="C21">
-        <v>-0.06870090820470584</v>
-      </c>
-      <c r="D21">
-        <v>-0.0904626834102677</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>-0.05004097006997516</v>
-      </c>
-      <c r="C22">
-        <v>0.03419594636321903</v>
-      </c>
-      <c r="D22">
-        <v>-0.07370331702321725</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>-1.106868150429471</v>
-      </c>
-      <c r="C23">
-        <v>-0.5726166301134896</v>
-      </c>
-      <c r="D23">
-        <v>-0.02416149893558395</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Germacrene D</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>-0.2280618818001391</v>
-      </c>
-      <c r="C24">
-        <v>0.01127281508409856</v>
-      </c>
-      <c r="D24">
-        <v>0.02822375317862541</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Humulene</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>-0.07344407226548944</v>
-      </c>
-      <c r="C25">
-        <v>0.009281900889426292</v>
-      </c>
-      <c r="D25">
-        <v>-0.007212626674274517</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Methyl Salicylate</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>-0.4487929993702747</v>
-      </c>
-      <c r="C26">
-        <v>-0.469989153845677</v>
-      </c>
-      <c r="D26">
-        <v>-0.5010904467143688</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>-3.116296163712367</v>
-      </c>
-      <c r="C27">
-        <v>0.4966559172738693</v>
-      </c>
-      <c r="D27">
-        <v>-0.1852981001052172</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Myrcene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>-0.05950655533841025</v>
-      </c>
-      <c r="C28">
-        <v>-0.02006639938210262</v>
-      </c>
-      <c r="D28">
-        <v>0.02857593471695208</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Nerolidol</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>-0.03067343152852439</v>
-      </c>
-      <c r="C29">
-        <v>-0.03569233514877759</v>
-      </c>
-      <c r="D29">
-        <v>-0.01698490153500067</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nona-1,3,7-triene &lt;4-8-dimethyl-, (E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>-0.2017238826934209</v>
-      </c>
-      <c r="C30">
-        <v>-0.2383432712884398</v>
-      </c>
-      <c r="D30">
-        <v>-0.2132374567904803</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>-1.745150419651695</v>
-      </c>
-      <c r="C31">
-        <v>-0.4033217295924622</v>
-      </c>
-      <c r="D31">
-        <v>0.5762193977882382</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;trans-beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>-0.4064574541929568</v>
-      </c>
-      <c r="C32">
-        <v>-0.11440666884019</v>
-      </c>
-      <c r="D32">
-        <v>0.1429282131892032</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Pentane, 3-ethyl-2,2-dimethyl-</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>-0.04715526728339173</v>
-      </c>
-      <c r="C33">
-        <v>-0.02459497527325299</v>
-      </c>
-      <c r="D33">
-        <v>0.03076516766122473</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>-0.3681823393793875</v>
-      </c>
-      <c r="C34">
-        <v>0.05719503758543313</v>
-      </c>
-      <c r="D34">
-        <v>0.01420866123344016</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>-0.428659252178367</v>
-      </c>
-      <c r="C35">
-        <v>0.05539917329003596</v>
-      </c>
-      <c r="D35">
-        <v>0.01566501501422427</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Trivertal</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>0.002609687920490331</v>
-      </c>
-      <c r="C36">
-        <v>0.0009648129416150135</v>
-      </c>
-      <c r="D36">
-        <v>0.006801566386765594</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>-0.04395528362580223</v>
-      </c>
-      <c r="C37">
-        <v>-0.1481369606701589</v>
-      </c>
-      <c r="D37">
-        <v>-0.1585025452810545</v>
+        <v>-0.2917709695120998</v>
       </c>
     </row>
   </sheetData>
